--- a/analyze/data/3_bots_2_GPT/summarize.xlsx
+++ b/analyze/data/3_bots_2_GPT/summarize.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Narrator Votes Averages" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Votes Not Narrator Averages" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Correct Votes Averages" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Winners Statistics" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.22222222222221</v>
+        <v>64.99999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>12.03703703703704</v>
+        <v>10.55555555555555</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>37.03703703703703</v>
+        <v>37.77777777777776</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.77777777777777</v>
+        <v>31.66666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>50.92592592592592</v>
+        <v>51.66666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +525,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.90986790986791</v>
+        <v>38.19036519036519</v>
       </c>
       <c r="C2" t="n">
-        <v>25.38461538461538</v>
+        <v>28.22740222740223</v>
       </c>
     </row>
   </sheetData>
@@ -568,10 +569,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.82232582232582</v>
+        <v>45.93783993783994</v>
       </c>
       <c r="C2" t="n">
-        <v>50.61004436262434</v>
+        <v>49.26125339515433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Winner Percent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bot</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
